--- a/biology/Médecine/Franz_Nissl/Franz_Nissl.xlsx
+++ b/biology/Médecine/Franz_Nissl/Franz_Nissl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Nissl (9 septembre 1860 à Frankenthal (Palatinat) - 11 août 1919 Munich) est un neurologue neuropathologiste et psychiatre allemand.
 Il donne son nom à une technique de coloration particulièrement utile en neuropathologie car elle ne fait apparaître que les corps cellulaires des neurones (péricaryon) et non leurs prolongements (axones). C'est grâce à cette coloration qu'il décrivit les corps de Nissl, qui correspondent au réticulum endoplasmique rugueux des neurones.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de médecine, Nissl commence en 1885 sa formation en psychiatrie en tant qu'assistant chez Bernhard von Gudden, le médecin personnel de Louis II de Bavière, à Munich.
 En 1889, Nissl est médecin-chef (Oberarzt) chez Aloïs Alzheimer à Francfort. Il rejoignit Emil Kraepelin à la clinique universitaire psychiatrique de Heidelberg en 1895. Il y exercera pendant 23 ans.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1903 Die Neuronenlehre und ihre Anhänger. Ein Beitrag zur Lösung des Problems der Beziehungen zwischen Nervenzelle, Faser und Grau. Gustav Fischer, Jena
 1904 Zur Histopathologie der paralytischen Rindenerkrankung. In: Histologische und histopathologische Arbeiten über die Grosshirnrinde mit besonderer Berücksichtigung der pathologischen Anatomie der Geisteskrankheiten. Volume 1. G. Fischer, Jena, S. 315-494.
